--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_19-16.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_19-16.xlsx
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
@@ -1930,13 +1933,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1956,13 +1959,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>23.039999999999999</v>
+        <v>15</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1982,17 +1985,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>23</v>
+        <v>23.039999999999999</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2000,7 +2003,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2008,13 +2011,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>150.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2026,7 +2029,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2034,17 +2037,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>56</v>
+        <v>150.40000000000001</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2060,13 +2063,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2086,13 +2089,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2118,11 +2121,11 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2130,7 +2133,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2138,17 +2141,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2164,17 +2167,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2190,13 +2193,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2216,17 +2219,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2234,7 +2237,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2242,17 +2245,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2268,17 +2271,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2286,7 +2289,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2294,17 +2297,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2326,7 +2329,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2346,13 +2349,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>-96</v>
+        <v>168</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2372,13 +2375,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>96</v>
+        <v>-96</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2398,13 +2401,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>-25</v>
+        <v>96</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2416,7 +2419,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2424,13 +2427,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2442,7 +2445,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2450,13 +2453,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2476,13 +2479,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2502,17 +2505,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2520,7 +2523,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2528,17 +2531,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2554,13 +2557,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2572,7 +2575,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2580,17 +2583,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2598,7 +2601,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2606,17 +2609,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2632,13 +2635,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2658,51 +2661,77 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="72" ht="26.25" customHeight="1">
-      <c r="K72" s="10">
-        <v>4543.8400000000001</v>
-      </c>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="11">
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="6">
+        <v>69</v>
+      </c>
+      <c t="s" r="B72" s="7">
+        <v>104</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c t="s" r="H72" s="8">
         <v>105</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c t="s" r="F73" s="12">
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="9">
+        <v>65</v>
+      </c>
+      <c r="M72" s="9"/>
+      <c t="s" r="N72" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" ht="25.5" customHeight="1">
+      <c r="K73" s="10">
+        <v>4574.8400000000001</v>
+      </c>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+    </row>
+    <row r="74" ht="17.25" customHeight="1">
+      <c t="s" r="A74" s="11">
         <v>106</v>
       </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="13"/>
-      <c t="s" r="I73" s="14">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c t="s" r="F74" s="12">
         <v>107</v>
       </c>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13"/>
+      <c t="s" r="I74" s="14">
+        <v>108</v>
+      </c>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="215">
+  <mergeCells count="218">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2914,10 +2943,13 @@
     <mergeCell ref="B71:G71"/>
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="I73:N73"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:N74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
